--- a/compare_result.xlsx
+++ b/compare_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D85CA49-5A3B-EC45-B2EC-2521217E8EE2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98F6D1B-C2BF-4A47-BA9C-02383300F337}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16020" yWindow="5260" windowWidth="28040" windowHeight="17440" xr2:uid="{F749F818-BF9C-FF41-8DC2-DE4FB159BD46}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="15">
   <si>
     <t>origin</t>
   </si>
@@ -54,27 +54,32 @@
     <t>__invert_models</t>
   </si>
   <si>
-    <t>speedup</t>
-  </si>
-  <si>
     <t>invert</t>
   </si>
   <si>
-    <t>invert_vector_field</t>
+    <t>warp_3d</t>
   </si>
   <si>
-    <t>warp_3d</t>
+    <t>factors</t>
+  </si>
+  <si>
+    <t>reorient</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>backward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,6 +97,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,14 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12833CF-8EE2-0144-996A-56AF20016161}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,311 +462,493 @@
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4.7815683999999997E-2</v>
+      </c>
+      <c r="B2">
+        <v>3.0867833000000001E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.13590101299999999</v>
+      </c>
+      <c r="D2">
+        <v>0.14534039300000001</v>
+      </c>
+      <c r="E2">
+        <v>8.5869955999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.1702883000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.9084310000000004E-3</v>
+      </c>
+      <c r="J2">
+        <v>6.3300070000000003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4.8603731999999997E-2</v>
+      </c>
+      <c r="B3">
+        <v>3.2260124000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.13294899499999999</v>
+      </c>
+      <c r="D3">
+        <v>0.14729465999999999</v>
+      </c>
+      <c r="E3">
+        <v>8.3298209999999998E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.3790353E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.5594609999999999E-3</v>
+      </c>
+      <c r="J3">
+        <v>6.0871959999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.8000065000000001E-2</v>
+      </c>
+      <c r="B4">
+        <v>3.2403762000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.139230627</v>
+      </c>
+      <c r="D4">
+        <v>0.14403091400000001</v>
+      </c>
+      <c r="E4">
+        <v>8.6124593999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.3097032999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>9.6691260000000001E-3</v>
+      </c>
+      <c r="J4">
+        <v>6.1635759999999996E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5.2714103999999998E-2</v>
+      </c>
+      <c r="B5">
+        <v>3.3192689999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.134492053</v>
+      </c>
+      <c r="D5">
+        <v>0.14475157299999999</v>
+      </c>
+      <c r="E5">
+        <v>8.3212389999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.1913414000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.744275E-3</v>
+      </c>
+      <c r="J5">
+        <v>6.0976490000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4.964561E-2</v>
+      </c>
+      <c r="B6">
+        <v>3.2623319999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.13356316800000001</v>
+      </c>
+      <c r="D6">
+        <v>0.14463954100000001</v>
+      </c>
+      <c r="E6">
+        <v>8.5861048999999995E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.351751E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I6">
+        <v>3.734327E-3</v>
+      </c>
+      <c r="J6">
+        <v>6.221407E-3</v>
+      </c>
+      <c r="K6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.1187903303653</v>
-      </c>
-      <c r="C2">
-        <v>4.5238256454467697E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.15211933851241999</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>7.7460426837205804E-2</v>
-      </c>
-      <c r="G2">
-        <v>1.0625384747982001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.117382925003767</v>
-      </c>
-      <c r="C3">
-        <v>4.9714216962456703E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.13898045383393701</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>7.4087860062718294E-2</v>
-      </c>
-      <c r="G3">
-        <v>1.2425918132066701E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.11792239919304801</v>
-      </c>
-      <c r="C4">
-        <v>5.08429314941167E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.14001101814210401</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>7.7054770663380595E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.08883399516344E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.118315344676375</v>
-      </c>
-      <c r="C5">
-        <v>4.9866199493408203E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.14107042923569599</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>7.4941549450159003E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.23475845903158E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.120377639308571</v>
-      </c>
-      <c r="C6">
-        <v>4.6541878953575998E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.139327308163046</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>7.6598303392529404E-2</v>
-      </c>
-      <c r="G6">
-        <v>1.0593885555863301E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>4.9751017000000002E-2</v>
       </c>
       <c r="B7">
-        <v>0.120460351929068</v>
+        <v>3.5212797999999997E-2</v>
       </c>
       <c r="C7">
-        <v>4.6896005049347801E-2</v>
+        <v>0.13284348600000001</v>
       </c>
       <c r="D7">
-        <v>0.139884723350405</v>
+        <v>0.14246846799999999</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>8.3309123999999998E-2</v>
       </c>
       <c r="F7">
-        <v>7.4471542611718095E-2</v>
+        <v>1.0957012E-2</v>
       </c>
       <c r="G7">
-        <v>1.2114699929952601E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.8893298000000006E-2</v>
+      </c>
+      <c r="H7">
+        <v>9.0202741000000003E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.7541330000000002E-3</v>
+      </c>
+      <c r="J7">
+        <v>6.2321310000000001E-3</v>
+      </c>
+      <c r="K7">
+        <v>6.2239779999999998E-3</v>
+      </c>
+      <c r="L7">
+        <v>6.6909070000000003E-3</v>
+      </c>
+      <c r="M7">
+        <v>6.1047669999999997E-3</v>
+      </c>
+      <c r="N7">
+        <v>9.0699720000000008E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>4.8215253E-2</v>
       </c>
       <c r="B8">
-        <v>0.177415911108255</v>
+        <v>3.5739435E-2</v>
       </c>
       <c r="C8">
-        <v>4.7680824995040803E-2</v>
+        <v>0.19823955300000001</v>
       </c>
       <c r="D8">
-        <v>0.20522157102823199</v>
+        <v>0.21383875599999999</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8.5947875000000007E-2</v>
       </c>
       <c r="F8">
-        <v>7.9508030787110301E-2</v>
+        <v>1.1416027E-2</v>
       </c>
       <c r="G8">
-        <v>1.12781934440135E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.8826486000000006E-2</v>
+      </c>
+      <c r="H8">
+        <v>9.0050255999999995E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.6570079999999998E-3</v>
+      </c>
+      <c r="J8">
+        <v>6.3098889999999999E-3</v>
+      </c>
+      <c r="K8">
+        <v>5.8572700000000004E-3</v>
+      </c>
+      <c r="L8">
+        <v>6.703044E-3</v>
+      </c>
+      <c r="M8">
+        <v>5.8875409999999996E-3</v>
+      </c>
+      <c r="N8">
+        <v>6.6243860000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>5.1111058000000001E-2</v>
       </c>
       <c r="B9">
-        <v>0.17761020176112599</v>
+        <v>3.4782261000000002E-2</v>
       </c>
       <c r="C9">
-        <v>4.7480462118983199E-2</v>
+        <v>0.19802946199999999</v>
       </c>
       <c r="D9">
-        <v>0.205074917525053</v>
+        <v>0.21668057600000001</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>8.3224060000000002E-2</v>
       </c>
       <c r="F9">
-        <v>7.70903620868921E-2</v>
+        <v>1.2761214999999999E-2</v>
       </c>
       <c r="G9">
-        <v>1.23810935765504E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.7335808999999996E-2</v>
+      </c>
+      <c r="H9">
+        <v>8.7212768999999996E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.6687069999999998E-3</v>
+      </c>
+      <c r="J9">
+        <v>6.1742699999999999E-3</v>
+      </c>
+      <c r="K9">
+        <v>5.8081469999999996E-3</v>
+      </c>
+      <c r="L9">
+        <v>7.118536E-3</v>
+      </c>
+      <c r="M9">
+        <v>5.5746349999999997E-3</v>
+      </c>
+      <c r="N9">
+        <v>6.7614459999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>5.0893687E-2</v>
       </c>
       <c r="B10">
-        <v>0.119260286912322</v>
+        <v>3.6058159999999999E-2</v>
       </c>
       <c r="C10">
-        <v>4.6240754425525603E-2</v>
+        <v>0.133341125</v>
       </c>
       <c r="D10">
-        <v>0.13776259310543501</v>
+        <v>0.142823752</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>8.2954911000000006E-2</v>
       </c>
       <c r="F10">
-        <v>8.18219184875488E-2</v>
+        <v>1.4079169000000001E-2</v>
       </c>
       <c r="G10">
-        <v>1.1096319183707201E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.7499042999999995E-2</v>
+      </c>
+      <c r="H10">
+        <v>8.5943267000000004E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.566882E-3</v>
+      </c>
+      <c r="J10">
+        <v>6.2602439999999999E-3</v>
+      </c>
+      <c r="K10">
+        <v>5.7797949999999999E-3</v>
+      </c>
+      <c r="L10">
+        <v>8.7164100000000008E-3</v>
+      </c>
+      <c r="M10">
+        <v>5.7312359999999998E-3</v>
+      </c>
+      <c r="N10">
+        <v>6.6564809999999997E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>5.0259727999999997E-2</v>
       </c>
       <c r="B11">
-        <v>0.11764770001173</v>
+        <v>3.7639437999999997E-2</v>
       </c>
       <c r="C11">
-        <v>4.7738024964928599E-2</v>
+        <v>0.133236454</v>
       </c>
       <c r="D11">
-        <v>0.13830946013331399</v>
+        <v>0.14532421300000001</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>9.6829711999999998E-2</v>
       </c>
       <c r="F11">
-        <v>9.5513371750712395E-2</v>
+        <v>1.5023003E-2</v>
       </c>
       <c r="G11">
-        <v>9.9661331623792596E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
+        <v>7.0342225999999994E-2</v>
+      </c>
+      <c r="H11">
+        <v>8.8620322000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>3.3725439999999999E-3</v>
+      </c>
+      <c r="J11">
+        <v>6.176544E-3</v>
+      </c>
+      <c r="K11">
+        <v>5.7278909999999997E-3</v>
+      </c>
+      <c r="L11">
+        <v>6.6843680000000004E-3</v>
+      </c>
+      <c r="M11">
+        <v>5.6343319999999997E-3</v>
+      </c>
+      <c r="N11">
+        <v>6.6938029999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f>AVERAGE(A2:A11)</f>
+        <v>4.9700993800000003E-2</v>
+      </c>
+      <c r="B12" s="1">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.13051830902695621</v>
+        <v>3.4077982099999994E-2</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(C2:C11)</f>
-        <v>4.7823955491185136E-2</v>
+        <v>0.14718259360000002</v>
       </c>
       <c r="D12" s="1">
         <f>AVERAGE(D2:D11)</f>
-        <v>0.15377618130296417</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
+        <v>0.15871928460000001</v>
+      </c>
+      <c r="E12" s="1">
+        <f>AVERAGE(E2:E11)</f>
+        <v>8.5663188100000009E-2</v>
       </c>
       <c r="F12" s="1">
         <f>AVERAGE(F2:F11)</f>
-        <v>7.8854813612997482E-2</v>
+        <v>1.2825761900000001E-2</v>
       </c>
       <c r="G12" s="1">
-        <f>AVERAGE(G2:G11)</f>
-        <v>1.1371755227446517E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5">
-        <f>$B12/C12</f>
-        <v>2.729140818371103</v>
-      </c>
-      <c r="D13" s="6">
-        <f>$B12/D12</f>
-        <v>0.84875504074206298</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5">
-        <f>$F12/G12</f>
-        <v>6.9342693397652404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <f>AVERAGE(G7:G11)</f>
+        <v>6.8579372400000005E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <f>AVERAGE(H7:H11)</f>
+        <v>8.8405870999999997E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f>AVERAGE(I2:I11)</f>
+        <v>4.2634893999999998E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <f>AVERAGE(J2:J11)</f>
+        <v>6.2052913000000005E-3</v>
+      </c>
+      <c r="K12" s="1">
+        <f>AVERAGE(K7:K11)</f>
+        <v>5.8794161999999994E-3</v>
+      </c>
+      <c r="L12" s="1">
+        <f>AVERAGE(L7:L11)</f>
+        <v>7.1826530000000015E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <f>AVERAGE(M7:M11)</f>
+        <v>5.7865021999999999E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <f>AVERAGE(N7:N11)</f>
+        <v>7.1612176000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <f>A12/B12</f>
+        <v>1.458448849880698</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <f>C12/D12</f>
+        <v>0.92731386718964592</v>
+      </c>
+      <c r="F13" s="4">
+        <f>$E12/F12</f>
+        <v>6.678994103266489</v>
+      </c>
+      <c r="H13" s="5">
+        <f>G12/H12</f>
+        <v>0.77573323608790645</v>
+      </c>
+      <c r="J13" s="5">
+        <f>I12/J12</f>
+        <v>0.68707320798944593</v>
+      </c>
+      <c r="L13" s="5">
+        <f>K12/L12</f>
+        <v>0.81855773904154883</v>
+      </c>
+      <c r="N13" s="5">
+        <f>M12/N12</f>
+        <v>0.8080332875236188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -777,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -796,11 +990,11 @@
       <c r="F16">
         <v>22191</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f>AVERAGE(B16:F16)</f>
         <v>21609.8</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f>G16+G17</f>
         <v>42762.8</v>
       </c>
@@ -824,7 +1018,7 @@
       <c r="F17">
         <v>21653</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" ref="G17:G23" si="0">AVERAGE(B17:F17)</f>
         <v>21153</v>
       </c>
@@ -848,9 +1042,13 @@
       <c r="F18">
         <v>32115</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="0"/>
         <v>33073.800000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <f>G18+G23</f>
+        <v>180754</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -872,7 +1070,7 @@
       <c r="F19">
         <v>20404</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
         <v>20936.8</v>
       </c>
@@ -896,9 +1094,13 @@
       <c r="F20">
         <v>17079</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="0"/>
         <v>17105</v>
+      </c>
+      <c r="H20" s="3">
+        <f>G20+G22</f>
+        <v>34314</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -920,7 +1122,7 @@
       <c r="F21">
         <v>19908</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="0"/>
         <v>20425</v>
       </c>
@@ -944,7 +1146,7 @@
       <c r="F22">
         <v>17246</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="0"/>
         <v>17209</v>
       </c>
@@ -968,7 +1170,7 @@
       <c r="F23">
         <v>144536</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="0"/>
         <v>147680.20000000001</v>
       </c>
@@ -1001,23 +1203,23 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>22463</v>
+        <v>22621</v>
       </c>
       <c r="C26">
-        <v>22729</v>
+        <v>23043</v>
       </c>
       <c r="D26">
-        <v>22272</v>
+        <v>22386</v>
       </c>
       <c r="E26">
-        <v>22472</v>
+        <v>21596</v>
       </c>
       <c r="F26">
-        <v>22224</v>
-      </c>
-      <c r="G26" s="4">
+        <v>22640</v>
+      </c>
+      <c r="G26" s="3">
         <f>AVERAGE(B26:F26)</f>
-        <v>22432</v>
+        <v>22457.200000000001</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1025,23 +1227,23 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>21764</v>
+        <v>21923</v>
       </c>
       <c r="C27">
-        <v>22182</v>
+        <v>22606</v>
       </c>
       <c r="D27">
-        <v>21662</v>
+        <v>21834</v>
       </c>
       <c r="E27">
-        <v>22047</v>
+        <v>20857</v>
       </c>
       <c r="F27">
-        <v>21795</v>
-      </c>
-      <c r="G27" s="4">
+        <v>22046</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" ref="G27:G33" si="1">AVERAGE(B27:F27)</f>
-        <v>21890</v>
+        <v>21853.200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1049,51 +1251,48 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>45794</v>
+        <v>33718</v>
       </c>
       <c r="C28">
-        <v>45094</v>
+        <v>35139</v>
       </c>
       <c r="D28">
-        <v>44704</v>
+        <v>34662</v>
       </c>
       <c r="E28">
-        <v>44933</v>
+        <v>36239</v>
       </c>
       <c r="F28">
-        <v>44601</v>
-      </c>
-      <c r="G28" s="4">
+        <v>35860</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="1"/>
-        <v>45025.2</v>
-      </c>
-      <c r="H28" s="6">
-        <f>G18/G28</f>
-        <v>0.73456197862530326</v>
-      </c>
+        <v>35123.599999999999</v>
+      </c>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>21584</v>
+        <v>21506</v>
       </c>
       <c r="C29">
-        <v>21848</v>
+        <v>22464</v>
       </c>
       <c r="D29">
-        <v>22405</v>
+        <v>22228</v>
       </c>
       <c r="E29">
-        <v>21894</v>
+        <v>21902</v>
       </c>
       <c r="F29">
-        <v>22009</v>
-      </c>
-      <c r="G29" s="4">
+        <v>21846</v>
+      </c>
+      <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>21948</v>
+        <v>21989.200000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1101,23 +1300,27 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>16478</v>
+        <v>17388</v>
       </c>
       <c r="C30">
-        <v>17401</v>
+        <v>15801</v>
       </c>
       <c r="D30">
-        <v>16086</v>
+        <v>17864</v>
       </c>
       <c r="E30">
-        <v>16340</v>
+        <v>15693</v>
       </c>
       <c r="F30">
-        <v>16338</v>
-      </c>
-      <c r="G30" s="4">
+        <v>16838</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="1"/>
-        <v>16528.599999999999</v>
+        <v>16716.8</v>
+      </c>
+      <c r="H30" s="3">
+        <f>G30+G32</f>
+        <v>33457.800000000003</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1125,23 +1328,23 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>21550</v>
+        <v>21360</v>
       </c>
       <c r="C31">
-        <v>21940</v>
+        <v>21871</v>
       </c>
       <c r="D31">
-        <v>21590</v>
+        <v>22889</v>
       </c>
       <c r="E31">
-        <v>22362</v>
+        <v>21156</v>
       </c>
       <c r="F31">
-        <v>22084</v>
-      </c>
-      <c r="G31" s="4">
+        <v>21990</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="1"/>
-        <v>21905.200000000001</v>
+        <v>21853.200000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1149,23 +1352,27 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>17115</v>
+        <v>17061</v>
       </c>
       <c r="C32">
-        <v>18013</v>
+        <v>16094</v>
       </c>
       <c r="D32">
-        <v>16217</v>
+        <v>17975</v>
       </c>
       <c r="E32">
-        <v>16683</v>
+        <v>15607</v>
       </c>
       <c r="F32">
-        <v>16320</v>
-      </c>
-      <c r="G32" s="4">
+        <v>16968</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="1"/>
-        <v>16869.599999999999</v>
+        <v>16741</v>
+      </c>
+      <c r="H32" s="4">
+        <f>H20/H30</f>
+        <v>1.0255904452773343</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1173,36 +1380,36 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>84582</v>
+        <v>151835</v>
       </c>
       <c r="C33">
-        <v>92531</v>
+        <v>142695</v>
       </c>
       <c r="D33">
-        <v>83735</v>
+        <v>153496</v>
       </c>
       <c r="E33">
-        <v>81108</v>
+        <v>142532</v>
       </c>
       <c r="F33">
-        <v>81803</v>
-      </c>
-      <c r="G33" s="4">
+        <v>153693</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>84751.8</v>
-      </c>
-      <c r="H33" s="5">
+        <v>148850.20000000001</v>
+      </c>
+      <c r="H33" s="6">
         <f>G23/G33</f>
-        <v>1.7425022241415522</v>
+        <v>0.9921397485525717</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1222,7 +1429,7 @@
       <c r="G35" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1243,11 +1450,11 @@
       <c r="F36">
         <v>22324</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <f>AVERAGE(B36:F36)</f>
         <v>22521</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1268,11 +1475,11 @@
       <c r="F37">
         <v>21626</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <f t="shared" ref="G37:G43" si="2">AVERAGE(B37:F37)</f>
         <v>21720</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1293,11 +1500,11 @@
       <c r="F38">
         <v>36470</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <f t="shared" si="2"/>
         <v>35120.400000000001</v>
       </c>
-      <c r="H38" s="5"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1318,11 +1525,11 @@
       <c r="F39">
         <v>22166</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <f t="shared" si="2"/>
         <v>21918</v>
       </c>
-      <c r="H39" s="5"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1343,11 +1550,11 @@
       <c r="F40">
         <v>17961</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f t="shared" si="2"/>
         <v>17945.400000000001</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -1368,11 +1575,11 @@
       <c r="F41">
         <v>21312</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <f t="shared" si="2"/>
         <v>21234.400000000001</v>
       </c>
-      <c r="H41" s="5"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1393,11 +1600,11 @@
       <c r="F42">
         <v>17458</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <f t="shared" si="2"/>
         <v>17530.8</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1418,18 +1625,18 @@
       <c r="F43">
         <v>246474</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <f t="shared" si="2"/>
         <v>249273</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <f>G23/G43</f>
         <v>0.59244362606459589</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1469,11 +1676,11 @@
       <c r="F46">
         <v>7796</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <f>AVERAGE(B46:F46)</f>
         <v>7772</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f>G46+G47</f>
         <v>16903.400000000001</v>
       </c>
@@ -1497,11 +1704,11 @@
       <c r="F47">
         <v>9125</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <f t="shared" ref="G47:G53" si="3">AVERAGE(B47:F47)</f>
         <v>9131.4</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <f>H16/H46</f>
         <v>2.5298342345326974</v>
       </c>
@@ -1525,12 +1732,12 @@
       <c r="F48">
         <v>35908</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <f t="shared" si="3"/>
         <v>35373.199999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1549,12 +1756,12 @@
       <c r="F49">
         <v>21354</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <f t="shared" si="3"/>
         <v>21576.799999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1573,12 +1780,12 @@
       <c r="F50">
         <v>17998</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <f t="shared" si="3"/>
         <v>17641.400000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1597,12 +1804,12 @@
       <c r="F51">
         <v>20926</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <f t="shared" si="3"/>
         <v>21150.2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1621,12 +1828,12 @@
       <c r="F52">
         <v>17218</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <f t="shared" si="3"/>
         <v>17144</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1645,9 +1852,890 @@
       <c r="F53">
         <v>149225</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <f t="shared" si="3"/>
         <v>150490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>21649</v>
+      </c>
+      <c r="C56">
+        <v>22206</v>
+      </c>
+      <c r="D56">
+        <v>22065</v>
+      </c>
+      <c r="E56">
+        <v>22664</v>
+      </c>
+      <c r="F56">
+        <v>22328</v>
+      </c>
+      <c r="G56" s="3">
+        <f>AVERAGE(B56:F56)</f>
+        <v>22182.400000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>20973</v>
+      </c>
+      <c r="C57">
+        <v>21550</v>
+      </c>
+      <c r="D57">
+        <v>21447</v>
+      </c>
+      <c r="E57">
+        <v>22194</v>
+      </c>
+      <c r="F57">
+        <v>21793</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" ref="G57:G63" si="4">AVERAGE(B57:F57)</f>
+        <v>21591.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>44832</v>
+      </c>
+      <c r="C58">
+        <v>44135</v>
+      </c>
+      <c r="D58">
+        <v>45219</v>
+      </c>
+      <c r="E58">
+        <v>45366</v>
+      </c>
+      <c r="F58">
+        <v>45081</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="4"/>
+        <v>44926.6</v>
+      </c>
+      <c r="H58" s="5">
+        <f>G18/G58</f>
+        <v>0.73617411511220532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>21525</v>
+      </c>
+      <c r="C59">
+        <v>21558</v>
+      </c>
+      <c r="D59">
+        <v>21928</v>
+      </c>
+      <c r="E59">
+        <v>22024</v>
+      </c>
+      <c r="F59">
+        <v>21767</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="4"/>
+        <v>21760.400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>17391</v>
+      </c>
+      <c r="C60">
+        <v>17613</v>
+      </c>
+      <c r="D60">
+        <v>17883</v>
+      </c>
+      <c r="E60">
+        <v>17752</v>
+      </c>
+      <c r="F60">
+        <v>17671</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="4"/>
+        <v>17662</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>20872</v>
+      </c>
+      <c r="C61">
+        <v>21053</v>
+      </c>
+      <c r="D61">
+        <v>21688</v>
+      </c>
+      <c r="E61">
+        <v>21523</v>
+      </c>
+      <c r="F61">
+        <v>21412</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="4"/>
+        <v>21309.599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>17305</v>
+      </c>
+      <c r="C62">
+        <v>17316</v>
+      </c>
+      <c r="D62">
+        <v>17912</v>
+      </c>
+      <c r="E62">
+        <v>17753</v>
+      </c>
+      <c r="F62">
+        <v>19399</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="4"/>
+        <v>17937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>78447</v>
+      </c>
+      <c r="C63">
+        <v>75458</v>
+      </c>
+      <c r="D63">
+        <v>83950</v>
+      </c>
+      <c r="E63">
+        <v>79217</v>
+      </c>
+      <c r="F63">
+        <v>83199</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="4"/>
+        <v>80054.2</v>
+      </c>
+      <c r="H63" s="4">
+        <f>G23/G63</f>
+        <v>1.84475268005926</v>
+      </c>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>21485</v>
+      </c>
+      <c r="C66">
+        <v>22370</v>
+      </c>
+      <c r="D66">
+        <v>21505</v>
+      </c>
+      <c r="E66">
+        <v>21396</v>
+      </c>
+      <c r="F66">
+        <v>21850</v>
+      </c>
+      <c r="G66" s="3">
+        <f>AVERAGE(B66:F66)</f>
+        <v>21721.200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>20852</v>
+      </c>
+      <c r="C67">
+        <v>21447</v>
+      </c>
+      <c r="D67">
+        <v>20647</v>
+      </c>
+      <c r="E67">
+        <v>21033</v>
+      </c>
+      <c r="F67">
+        <v>21337</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" ref="G67:G73" si="5">AVERAGE(B67:F67)</f>
+        <v>21063.200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>43881</v>
+      </c>
+      <c r="C68">
+        <v>45234</v>
+      </c>
+      <c r="D68">
+        <v>45691</v>
+      </c>
+      <c r="E68">
+        <v>44475</v>
+      </c>
+      <c r="F68">
+        <v>45513</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="5"/>
+        <v>44958.8</v>
+      </c>
+      <c r="H68" s="5">
+        <f>G18/G68</f>
+        <v>0.73564685890192805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>21246</v>
+      </c>
+      <c r="C69">
+        <v>21665</v>
+      </c>
+      <c r="D69">
+        <v>21739</v>
+      </c>
+      <c r="E69">
+        <v>22033</v>
+      </c>
+      <c r="F69">
+        <v>22243</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="5"/>
+        <v>21785.200000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>17010</v>
+      </c>
+      <c r="C70">
+        <v>17458</v>
+      </c>
+      <c r="D70">
+        <v>17100</v>
+      </c>
+      <c r="E70">
+        <v>17351</v>
+      </c>
+      <c r="F70">
+        <v>18388</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="5"/>
+        <v>17461.400000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>20790</v>
+      </c>
+      <c r="C71">
+        <v>20964</v>
+      </c>
+      <c r="D71">
+        <v>20655</v>
+      </c>
+      <c r="E71">
+        <v>21402</v>
+      </c>
+      <c r="F71">
+        <v>21516</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="5"/>
+        <v>21065.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>17266</v>
+      </c>
+      <c r="C72">
+        <v>17221</v>
+      </c>
+      <c r="D72">
+        <v>17168</v>
+      </c>
+      <c r="E72">
+        <v>18357</v>
+      </c>
+      <c r="F72">
+        <v>18330</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="5"/>
+        <v>17668.400000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>149443</v>
+      </c>
+      <c r="C73">
+        <v>152303</v>
+      </c>
+      <c r="D73">
+        <v>155995</v>
+      </c>
+      <c r="E73">
+        <v>151480</v>
+      </c>
+      <c r="F73">
+        <v>152745</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="5"/>
+        <v>152393.20000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>21592</v>
+      </c>
+      <c r="C76">
+        <v>22296</v>
+      </c>
+      <c r="D76">
+        <v>21849</v>
+      </c>
+      <c r="E76">
+        <v>21812</v>
+      </c>
+      <c r="F76">
+        <v>21975</v>
+      </c>
+      <c r="G76" s="3">
+        <f>AVERAGE(B76:F76)</f>
+        <v>21904.799999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>21090</v>
+      </c>
+      <c r="C77">
+        <v>21812</v>
+      </c>
+      <c r="D77">
+        <v>21465</v>
+      </c>
+      <c r="E77">
+        <v>21382</v>
+      </c>
+      <c r="F77">
+        <v>21362</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" ref="G77:G83" si="6">AVERAGE(B77:F77)</f>
+        <v>21422.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>34230</v>
+      </c>
+      <c r="C78">
+        <v>34598</v>
+      </c>
+      <c r="D78">
+        <v>33039</v>
+      </c>
+      <c r="E78">
+        <v>33995</v>
+      </c>
+      <c r="F78">
+        <v>33757</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="6"/>
+        <v>33923.800000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>26419</v>
+      </c>
+      <c r="C79">
+        <v>27104</v>
+      </c>
+      <c r="D79">
+        <v>26230</v>
+      </c>
+      <c r="E79">
+        <v>26726</v>
+      </c>
+      <c r="F79">
+        <v>28339</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="6"/>
+        <v>26963.599999999999</v>
+      </c>
+      <c r="H79" s="5">
+        <f>G19/G79</f>
+        <v>0.77648385230458838</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>17047</v>
+      </c>
+      <c r="C80">
+        <v>17793</v>
+      </c>
+      <c r="D80">
+        <v>17034</v>
+      </c>
+      <c r="E80">
+        <v>17406</v>
+      </c>
+      <c r="F80">
+        <v>18143</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="6"/>
+        <v>17484.599999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>20592</v>
+      </c>
+      <c r="C81">
+        <v>21894</v>
+      </c>
+      <c r="D81">
+        <v>20556</v>
+      </c>
+      <c r="E81">
+        <v>21187</v>
+      </c>
+      <c r="F81">
+        <v>21219</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="6"/>
+        <v>21089.599999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>16821</v>
+      </c>
+      <c r="C82">
+        <v>18400</v>
+      </c>
+      <c r="D82">
+        <v>16970</v>
+      </c>
+      <c r="E82">
+        <v>17323</v>
+      </c>
+      <c r="F82">
+        <v>18033</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="6"/>
+        <v>17509.400000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>147592</v>
+      </c>
+      <c r="C83">
+        <v>154238</v>
+      </c>
+      <c r="D83">
+        <v>147860</v>
+      </c>
+      <c r="E83">
+        <v>151618</v>
+      </c>
+      <c r="F83">
+        <v>155095</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="6"/>
+        <v>151280.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>21265</v>
+      </c>
+      <c r="C86">
+        <v>22408</v>
+      </c>
+      <c r="D86">
+        <v>21827</v>
+      </c>
+      <c r="E86">
+        <v>22200</v>
+      </c>
+      <c r="F86">
+        <v>22533</v>
+      </c>
+      <c r="G86" s="3">
+        <f>AVERAGE(B86:F86)</f>
+        <v>22046.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>20896</v>
+      </c>
+      <c r="C87">
+        <v>21908</v>
+      </c>
+      <c r="D87">
+        <v>21500</v>
+      </c>
+      <c r="E87">
+        <v>21599</v>
+      </c>
+      <c r="F87">
+        <v>22782</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" ref="G87:G93" si="7">AVERAGE(B87:F87)</f>
+        <v>21737</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>34033</v>
+      </c>
+      <c r="C88">
+        <v>33991</v>
+      </c>
+      <c r="D88">
+        <v>33943</v>
+      </c>
+      <c r="E88">
+        <v>34364</v>
+      </c>
+      <c r="F88">
+        <v>34117</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="7"/>
+        <v>34089.599999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>20930</v>
+      </c>
+      <c r="C89">
+        <v>21573</v>
+      </c>
+      <c r="D89">
+        <v>21146</v>
+      </c>
+      <c r="E89">
+        <v>21545</v>
+      </c>
+      <c r="F89">
+        <v>21750</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="7"/>
+        <v>21388.799999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>17439</v>
+      </c>
+      <c r="C90">
+        <v>17870</v>
+      </c>
+      <c r="D90">
+        <v>17693</v>
+      </c>
+      <c r="E90">
+        <v>17426</v>
+      </c>
+      <c r="F90">
+        <v>17646</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="7"/>
+        <v>17614.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>26132</v>
+      </c>
+      <c r="C91">
+        <v>27238</v>
+      </c>
+      <c r="D91">
+        <v>26915</v>
+      </c>
+      <c r="E91">
+        <v>26625</v>
+      </c>
+      <c r="F91">
+        <v>28358</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="7"/>
+        <v>27053.599999999999</v>
+      </c>
+      <c r="H91" s="5">
+        <f>G21/G91</f>
+        <v>0.75498270100836862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>17482</v>
+      </c>
+      <c r="C92">
+        <v>17717</v>
+      </c>
+      <c r="D92">
+        <v>17440</v>
+      </c>
+      <c r="E92">
+        <v>17517</v>
+      </c>
+      <c r="F92">
+        <v>17868</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="7"/>
+        <v>17604.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>147725</v>
+      </c>
+      <c r="C93">
+        <v>154948</v>
+      </c>
+      <c r="D93">
+        <v>151719</v>
+      </c>
+      <c r="E93">
+        <v>153135</v>
+      </c>
+      <c r="F93">
+        <v>155080</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="7"/>
+        <v>152521.4</v>
       </c>
     </row>
   </sheetData>

--- a/compare_result.xlsx
+++ b/compare_result.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98F6D1B-C2BF-4A47-BA9C-02383300F337}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF29E53-16D4-8C46-A9D9-D3C887616E78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="5260" windowWidth="28040" windowHeight="17440" xr2:uid="{F749F818-BF9C-FF41-8DC2-DE4FB159BD46}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="1" xr2:uid="{F749F818-BF9C-FF41-8DC2-DE4FB159BD46}"/>
   </bookViews>
   <sheets>
-    <sheet name="compose" sheetId="1" r:id="rId1"/>
+    <sheet name="aff_reg" sheetId="2" r:id="rId1"/>
+    <sheet name="syn_reg" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>origin</t>
   </si>
@@ -71,13 +72,44 @@
   <si>
     <t>backward</t>
   </si>
+  <si>
+    <t>_gradient_3d</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>parallelized</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>_compute_pdfs_dense_3d</t>
+  </si>
+  <si>
+    <t>_joint_pdf_gradient_dense_3d</t>
+  </si>
+  <si>
+    <t>_compose_vector_fields_3d</t>
+  </si>
+  <si>
+    <t>invert_vector_field_fixed_point_3d</t>
+  </si>
+  <si>
+    <t>precompute_cc_factors_3d</t>
+  </si>
+  <si>
+    <t>reorient_vector_field_3d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -116,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,19 +156,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,19 +507,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A078852-2B78-F94F-8FC5-DE83CD6CEFC0}">
+  <dimension ref="B4:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.23064000000000001</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.0877000000000002E-2</v>
+      </c>
+      <c r="E5" s="11">
+        <f>C5/D5</f>
+        <v>7.4696375943258735</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3.1415999999999999E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4.8541000000000001E-2</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6/D6</f>
+        <v>0.64720545518221706</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.36974000000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.13804</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7/D7</f>
+        <v>2.6784989858012174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12833CF-8EE2-0144-996A-56AF20016161}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4.7815683999999997E-2</v>
       </c>
@@ -514,7 +647,7 @@
         <v>6.3300070000000003E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4.8603731999999997E-2</v>
       </c>
@@ -540,7 +673,7 @@
         <v>6.0871959999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.8000065000000001E-2</v>
       </c>
@@ -566,7 +699,7 @@
         <v>6.1635759999999996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5.2714103999999998E-2</v>
       </c>
@@ -592,7 +725,7 @@
         <v>6.0976490000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4.964561E-2</v>
       </c>
@@ -636,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4.9751017000000002E-2</v>
       </c>
@@ -680,7 +813,7 @@
         <v>9.0699720000000008E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4.8215253E-2</v>
       </c>
@@ -724,7 +857,7 @@
         <v>6.6243860000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5.1111058000000001E-2</v>
       </c>
@@ -768,7 +901,7 @@
         <v>6.7614459999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5.0893687E-2</v>
       </c>
@@ -812,7 +945,7 @@
         <v>6.6564809999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5.0259727999999997E-2</v>
       </c>
@@ -856,29 +989,29 @@
         <v>6.6938029999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>AVERAGE(A2:A11)</f>
+        <f t="shared" ref="A12:F12" si="0">AVERAGE(A2:A11)</f>
         <v>4.9700993800000003E-2</v>
       </c>
       <c r="B12" s="1">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" si="0"/>
         <v>3.4077982099999994E-2</v>
       </c>
       <c r="C12" s="1">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>0.14718259360000002</v>
       </c>
       <c r="D12" s="1">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>0.15871928460000001</v>
       </c>
       <c r="E12" s="1">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>8.5663188100000009E-2</v>
       </c>
       <c r="F12" s="1">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>1.2825761900000001E-2</v>
       </c>
       <c r="G12" s="1">
@@ -914,7 +1047,7 @@
         <v>7.1612176000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <f>A12/B12</f>
         <v>1.458448849880698</v>
@@ -945,10 +1078,10 @@
         <v>0.8080332875236188</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -970,8 +1103,18 @@
       <c r="G15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="8"/>
+      <c r="P15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -998,8 +1141,21 @@
         <f>G16+G17</f>
         <v>42762.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="9">
+        <v>4.9701000000000002E-2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>3.4077999999999997E-2</v>
+      </c>
+      <c r="R16" s="11">
+        <f>P16/Q16</f>
+        <v>1.4584482657432949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1019,11 +1175,24 @@
         <v>21653</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ref="G17:G23" si="0">AVERAGE(B17:F17)</f>
+        <f t="shared" ref="G17:G23" si="1">AVERAGE(B17:F17)</f>
         <v>21153</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.14718300000000001</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.158719</v>
+      </c>
+      <c r="R17" s="11">
+        <f>P17/Q17</f>
+        <v>0.9273180904617595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1043,15 +1212,28 @@
         <v>32115</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33073.800000000003</v>
       </c>
       <c r="H18" s="3">
         <f>G18+G23</f>
         <v>180754</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="9">
+        <v>8.5663000000000003E-2</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>1.2826000000000001E-2</v>
+      </c>
+      <c r="R18" s="11">
+        <f>P18/Q18</f>
+        <v>6.6788554498674566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1071,11 +1253,24 @@
         <v>20404</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20936.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="9">
+        <v>4.2630000000000003E-3</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>6.2049999999999996E-3</v>
+      </c>
+      <c r="R19" s="11">
+        <f>P19/Q19</f>
+        <v>0.68702659145850131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1095,15 +1290,28 @@
         <v>17079</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17105</v>
       </c>
       <c r="H20" s="3">
         <f>G20+G22</f>
         <v>34314</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="9">
+        <v>6.8579000000000001E-2</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>8.8405999999999998E-2</v>
+      </c>
+      <c r="R20" s="11">
+        <f>P20/Q20</f>
+        <v>0.7757278917720517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1123,11 +1331,11 @@
         <v>19908</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20425</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1147,11 +1355,11 @@
         <v>17246</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17209</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1171,11 +1379,11 @@
         <v>144536</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>147680.20000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1198,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1430,7 @@
         <v>22457.200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1242,11 +1450,11 @@
         <v>22046</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ref="G27:G33" si="1">AVERAGE(B27:F27)</f>
+        <f t="shared" ref="G27:G33" si="2">AVERAGE(B27:F27)</f>
         <v>21853.200000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1266,12 +1474,12 @@
         <v>35860</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35123.599999999999</v>
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1291,11 +1499,11 @@
         <v>21846</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21989.200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1523,7 @@
         <v>16838</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16716.8</v>
       </c>
       <c r="H30" s="3">
@@ -1323,7 +1531,7 @@
         <v>33457.800000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1343,11 +1551,11 @@
         <v>21990</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21853.200000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1575,7 @@
         <v>16968</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16741</v>
       </c>
       <c r="H32" s="4">
@@ -1395,7 +1603,7 @@
         <v>153693</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>148850.20000000001</v>
       </c>
       <c r="H33" s="6">
@@ -1476,7 +1684,7 @@
         <v>21626</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" ref="G37:G43" si="2">AVERAGE(B37:F37)</f>
+        <f t="shared" ref="G37:G43" si="3">AVERAGE(B37:F37)</f>
         <v>21720</v>
       </c>
       <c r="H37" s="4"/>
@@ -1501,7 +1709,7 @@
         <v>36470</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35120.400000000001</v>
       </c>
       <c r="H38" s="4"/>
@@ -1526,7 +1734,7 @@
         <v>22166</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21918</v>
       </c>
       <c r="H39" s="4"/>
@@ -1551,7 +1759,7 @@
         <v>17961</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17945.400000000001</v>
       </c>
       <c r="H40" s="4"/>
@@ -1576,7 +1784,7 @@
         <v>21312</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21234.400000000001</v>
       </c>
       <c r="H41" s="4"/>
@@ -1601,7 +1809,7 @@
         <v>17458</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17530.8</v>
       </c>
       <c r="H42" s="4"/>
@@ -1626,7 +1834,7 @@
         <v>246474</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>249273</v>
       </c>
       <c r="H43" s="5">
@@ -1705,7 +1913,7 @@
         <v>9125</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" ref="G47:G53" si="3">AVERAGE(B47:F47)</f>
+        <f t="shared" ref="G47:G53" si="4">AVERAGE(B47:F47)</f>
         <v>9131.4</v>
       </c>
       <c r="H47" s="4">
@@ -1733,7 +1941,7 @@
         <v>35908</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35373.199999999997</v>
       </c>
     </row>
@@ -1757,7 +1965,7 @@
         <v>21354</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21576.799999999999</v>
       </c>
     </row>
@@ -1781,7 +1989,7 @@
         <v>17998</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17641.400000000001</v>
       </c>
     </row>
@@ -1805,7 +2013,7 @@
         <v>20926</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21150.2</v>
       </c>
     </row>
@@ -1829,7 +2037,7 @@
         <v>17218</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17144</v>
       </c>
     </row>
@@ -1853,7 +2061,7 @@
         <v>149225</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>150490</v>
       </c>
     </row>
@@ -1924,7 +2132,7 @@
         <v>21793</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" ref="G57:G63" si="4">AVERAGE(B57:F57)</f>
+        <f t="shared" ref="G57:G63" si="5">AVERAGE(B57:F57)</f>
         <v>21591.4</v>
       </c>
     </row>
@@ -1948,7 +2156,7 @@
         <v>45081</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44926.6</v>
       </c>
       <c r="H58" s="5">
@@ -1976,7 +2184,7 @@
         <v>21767</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21760.400000000001</v>
       </c>
     </row>
@@ -2000,7 +2208,7 @@
         <v>17671</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17662</v>
       </c>
     </row>
@@ -2024,7 +2232,7 @@
         <v>21412</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21309.599999999999</v>
       </c>
     </row>
@@ -2048,7 +2256,7 @@
         <v>19399</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17937</v>
       </c>
     </row>
@@ -2072,7 +2280,7 @@
         <v>83199</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80054.2</v>
       </c>
       <c r="H63" s="4">
@@ -2148,7 +2356,7 @@
         <v>21337</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" ref="G67:G73" si="5">AVERAGE(B67:F67)</f>
+        <f t="shared" ref="G67:G73" si="6">AVERAGE(B67:F67)</f>
         <v>21063.200000000001</v>
       </c>
     </row>
@@ -2172,7 +2380,7 @@
         <v>45513</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44958.8</v>
       </c>
       <c r="H68" s="5">
@@ -2200,7 +2408,7 @@
         <v>22243</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21785.200000000001</v>
       </c>
     </row>
@@ -2224,7 +2432,7 @@
         <v>18388</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17461.400000000001</v>
       </c>
     </row>
@@ -2248,7 +2456,7 @@
         <v>21516</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21065.4</v>
       </c>
     </row>
@@ -2272,7 +2480,7 @@
         <v>18330</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17668.400000000001</v>
       </c>
     </row>
@@ -2296,7 +2504,7 @@
         <v>152745</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>152393.20000000001</v>
       </c>
     </row>
@@ -2367,7 +2575,7 @@
         <v>21362</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" ref="G77:G83" si="6">AVERAGE(B77:F77)</f>
+        <f t="shared" ref="G77:G83" si="7">AVERAGE(B77:F77)</f>
         <v>21422.2</v>
       </c>
     </row>
@@ -2391,7 +2599,7 @@
         <v>33757</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33923.800000000003</v>
       </c>
     </row>
@@ -2415,7 +2623,7 @@
         <v>28339</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26963.599999999999</v>
       </c>
       <c r="H79" s="5">
@@ -2443,7 +2651,7 @@
         <v>18143</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17484.599999999999</v>
       </c>
     </row>
@@ -2467,7 +2675,7 @@
         <v>21219</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21089.599999999999</v>
       </c>
     </row>
@@ -2491,7 +2699,7 @@
         <v>18033</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17509.400000000001</v>
       </c>
     </row>
@@ -2515,7 +2723,7 @@
         <v>155095</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>151280.6</v>
       </c>
     </row>
@@ -2586,7 +2794,7 @@
         <v>22782</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" ref="G87:G93" si="7">AVERAGE(B87:F87)</f>
+        <f t="shared" ref="G87:G93" si="8">AVERAGE(B87:F87)</f>
         <v>21737</v>
       </c>
     </row>
@@ -2610,7 +2818,7 @@
         <v>34117</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34089.599999999999</v>
       </c>
     </row>
@@ -2634,7 +2842,7 @@
         <v>21750</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21388.799999999999</v>
       </c>
     </row>
@@ -2658,7 +2866,7 @@
         <v>17646</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17614.8</v>
       </c>
     </row>
@@ -2682,7 +2890,7 @@
         <v>28358</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27053.599999999999</v>
       </c>
       <c r="H91" s="5">
@@ -2710,7 +2918,7 @@
         <v>17868</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17604.8</v>
       </c>
     </row>
@@ -2734,7 +2942,7 @@
         <v>155080</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>152521.4</v>
       </c>
     </row>
